--- a/Employee_Reports35/Yuvashanth Somasuntharam kukasuthan Q0560.xlsx
+++ b/Employee_Reports35/Yuvashanth Somasuntharam kukasuthan Q0560.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-88</v>
+        <v>-89</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-88</v>
+        <v>-89</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1431,11 +1431,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1480,11 +1480,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1517,11 +1517,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1554,11 +1554,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1591,11 +1591,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1628,11 +1628,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">

--- a/Employee_Reports35/Yuvashanth Somasuntharam kukasuthan Q0560.xlsx
+++ b/Employee_Reports35/Yuvashanth Somasuntharam kukasuthan Q0560.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>-33</v>
+        <v>-34</v>
       </c>
       <c r="I16" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="4" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1308,11 +1308,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1357,11 +1357,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1394,11 +1394,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-89</v>
+        <v>-90</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1431,11 +1431,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1480,11 +1480,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1517,11 +1517,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1554,11 +1554,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1591,11 +1591,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1628,11 +1628,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
